--- a/2025 Track.xlsx
+++ b/2025 Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE90BF8-9FA1-41AA-9D17-C6319FCB90BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C00A0-8EBB-4794-9569-AE9E860A3641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -2045,7 +2045,7 @@
   <dimension ref="B1:F369"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C8" s="35" t="str">
         <f>IF('2025'!$E9="DONE","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="D8" s="35" t="str">
         <f>IF('2025'!$K9="DONE","Done","")</f>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="C9" s="35" t="str">
         <f>IF('2025'!$E10="DONE","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="D9" s="35" t="str">
         <f>IF('2025'!$K10="DONE","Done","")</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C10" s="35" t="str">
         <f>IF('2025'!$E11="DONE","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="D10" s="35" t="str">
         <f>IF('2025'!$K11="DONE","Done","")</f>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C11" s="35" t="str">
         <f>IF('2025'!$E12="DONE","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="D11" s="35" t="str">
         <f>IF('2025'!$K12="DONE","Done","")</f>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C12" s="35" t="str">
         <f>IF('2025'!$E13="DONE","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="D12" s="35" t="str">
         <f>IF('2025'!$K13="DONE","Done","")</f>
@@ -13243,7 +13243,7 @@
   <dimension ref="A1:X370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -13356,11 +13356,11 @@
       <c r="E3" s="61"/>
       <c r="F3" s="26">
         <f>(F4/60)+(G4/3600)</f>
-        <v>0.2011111111111111</v>
+        <v>0.44138888888888883</v>
       </c>
       <c r="G3" s="25">
         <f>F4+(G4/60)</f>
-        <v>12.066666666666666</v>
+        <v>26.483333333333334</v>
       </c>
       <c r="H3" s="60"/>
       <c r="I3" s="61"/>
@@ -13410,11 +13410,11 @@
       </c>
       <c r="F4" s="7">
         <f>SUMIFS(F$5:F$369,E$5:E$369,"DONE")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7">
         <f>SUMIFS(G$5:G$369,$K$5:$K$369,"DONE")</f>
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>0</v>
@@ -13789,11 +13789,17 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>9.8148148148148161E-3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
       <c r="H9" s="39">
         <v>45662</v>
       </c>
@@ -13856,15 +13862,21 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>9.8148148148148161E-3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>1.1087962962962963E-2</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
       <c r="H10" s="39">
         <v>45663</v>
       </c>
@@ -13927,15 +13939,21 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.1087962962962963E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>1.4976851851851851E-2</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>36</v>
+      </c>
       <c r="H11" s="39">
         <v>45664</v>
       </c>
@@ -13998,15 +14016,21 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.4976851851851851E-2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>1.6192129629629629E-2</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45</v>
+      </c>
       <c r="H12" s="39">
         <v>45665</v>
       </c>
@@ -14069,15 +14093,21 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.6192129629629629E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>1.8391203703703701E-2</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
       <c r="H13" s="39">
         <v>45666</v>
       </c>
@@ -14140,11 +14170,11 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="2"/>
@@ -14211,11 +14241,11 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="2"/>
@@ -14282,11 +14312,11 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="2"/>
@@ -14353,11 +14383,11 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="2"/>
@@ -14424,11 +14454,11 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="2"/>
@@ -14490,11 +14520,11 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="2"/>
@@ -14556,11 +14586,11 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="2"/>
@@ -14622,11 +14652,11 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="2"/>
@@ -14688,11 +14718,11 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="2"/>
@@ -14748,11 +14778,11 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="2"/>
@@ -14808,11 +14838,11 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="2"/>
@@ -14868,11 +14898,11 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="2"/>
@@ -14928,11 +14958,11 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="2"/>
@@ -14988,11 +15018,11 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="2"/>
@@ -15048,11 +15078,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="2"/>
@@ -15108,11 +15138,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="2"/>
@@ -15168,11 +15198,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="2"/>
@@ -15228,11 +15258,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="2"/>
@@ -15288,11 +15318,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="2"/>
@@ -15348,11 +15378,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="2"/>
@@ -15408,11 +15438,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="2"/>
@@ -15468,11 +15498,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="2"/>
@@ -15528,11 +15558,11 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="2"/>
@@ -15588,11 +15618,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="2"/>
@@ -15648,11 +15678,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="2"/>
@@ -15708,11 +15738,11 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="2"/>
@@ -15768,11 +15798,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="2"/>
@@ -15828,11 +15858,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="2"/>
@@ -15888,11 +15918,11 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="2"/>
@@ -15948,11 +15978,11 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="2"/>
@@ -16008,11 +16038,11 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="2"/>
@@ -16068,11 +16098,11 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="2"/>
@@ -16128,11 +16158,11 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="2"/>
@@ -16188,11 +16218,11 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="2"/>
@@ -16248,11 +16278,11 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="2"/>
@@ -16308,11 +16338,11 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="2"/>
@@ -16368,11 +16398,11 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="2"/>
@@ -16428,11 +16458,11 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="2"/>
@@ -16488,11 +16518,11 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="2"/>
@@ -16548,11 +16578,11 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="2"/>
@@ -16608,11 +16638,11 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="2"/>
@@ -16668,11 +16698,11 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="2"/>
@@ -16728,11 +16758,11 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="2"/>
@@ -16788,11 +16818,11 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="2"/>
@@ -16848,11 +16878,11 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="2"/>
@@ -16908,11 +16938,11 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="2"/>
@@ -16968,11 +16998,11 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="2"/>
@@ -17028,11 +17058,11 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="2"/>
@@ -17088,11 +17118,11 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="2"/>
@@ -17148,11 +17178,11 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="2"/>
@@ -17208,11 +17238,11 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="2"/>
@@ -17268,11 +17298,11 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="2"/>
@@ -17328,11 +17358,11 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="2"/>
@@ -17388,11 +17418,11 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="2"/>
@@ -17448,11 +17478,11 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="2"/>
@@ -17508,11 +17538,11 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="2"/>
@@ -17568,11 +17598,11 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="2"/>
@@ -17628,11 +17658,11 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ref="C71:C134" si="9">D70</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" ref="D71:D134" si="10">IF(E71="DONE",C71+(F71/1440)+(G71/86400),C71)</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="2"/>
@@ -17688,11 +17718,11 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="2"/>
@@ -17748,11 +17778,11 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="2"/>
@@ -17808,11 +17838,11 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="2"/>
@@ -17868,11 +17898,11 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="2"/>
@@ -17928,11 +17958,11 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="2"/>
@@ -17988,11 +18018,11 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="2"/>
@@ -18048,11 +18078,11 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="2"/>
@@ -18108,11 +18138,11 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="2"/>
@@ -18168,11 +18198,11 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="2"/>
@@ -18228,11 +18258,11 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="2"/>
@@ -18288,11 +18318,11 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="2"/>
@@ -18348,11 +18378,11 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="2"/>
@@ -18408,11 +18438,11 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="2"/>
@@ -18468,11 +18498,11 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="2"/>
@@ -18528,11 +18558,11 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="2"/>
@@ -18588,11 +18618,11 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="2"/>
@@ -18648,11 +18678,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="2"/>
@@ -18708,11 +18738,11 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="2"/>
@@ -18768,11 +18798,11 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="2"/>
@@ -18828,11 +18858,11 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="2"/>
@@ -18888,11 +18918,11 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="2"/>
@@ -18948,11 +18978,11 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="2"/>
@@ -19008,11 +19038,11 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="2"/>
@@ -19068,11 +19098,11 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="2"/>
@@ -19128,11 +19158,11 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="2"/>
@@ -19188,11 +19218,11 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="2"/>
@@ -19254,11 +19284,11 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="2"/>
@@ -19320,11 +19350,11 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="2"/>
@@ -19386,11 +19416,11 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="2"/>
@@ -19452,11 +19482,11 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="2"/>
@@ -19518,11 +19548,11 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="2"/>
@@ -19584,11 +19614,11 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="2"/>
@@ -19650,11 +19680,11 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="2"/>
@@ -19716,11 +19746,11 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="2"/>
@@ -19782,11 +19812,11 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="2"/>
@@ -19848,11 +19878,11 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="2"/>
@@ -19914,11 +19944,11 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="2"/>
@@ -19974,11 +20004,11 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="2"/>
@@ -20034,11 +20064,11 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="2"/>
@@ -20094,11 +20124,11 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="2"/>
@@ -20154,11 +20184,11 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="2"/>
@@ -20214,11 +20244,11 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="2"/>
@@ -20274,11 +20304,11 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="2"/>
@@ -20334,11 +20364,11 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="2"/>
@@ -20394,11 +20424,11 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="2"/>
@@ -20454,11 +20484,11 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="2"/>
@@ -20514,11 +20544,11 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="2"/>
@@ -20574,11 +20604,11 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="2"/>
@@ -20634,11 +20664,11 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="2"/>
@@ -20694,11 +20724,11 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="2"/>
@@ -20754,11 +20784,11 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="2"/>
@@ -20814,11 +20844,11 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="2"/>
@@ -20874,11 +20904,11 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="2"/>
@@ -20934,11 +20964,11 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="2"/>
@@ -20994,11 +21024,11 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="2"/>
@@ -21054,11 +21084,11 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="2"/>
@@ -21114,11 +21144,11 @@
       </c>
       <c r="C128" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="2"/>
@@ -21174,11 +21204,11 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="2"/>
@@ -21234,11 +21264,11 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="2"/>
@@ -21294,11 +21324,11 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E131" s="28"/>
       <c r="F131" s="2"/>
@@ -21354,11 +21384,11 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E132" s="28"/>
       <c r="F132" s="2"/>
@@ -21414,11 +21444,11 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="2"/>
@@ -21474,11 +21504,11 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" si="9"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="10"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E134" s="28"/>
       <c r="F134" s="2"/>
@@ -21534,11 +21564,11 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" ref="C135:C198" si="17">D134</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" ref="D135:D198" si="18">IF(E135="DONE",C135+(F135/1440)+(G135/86400),C135)</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E135" s="28"/>
       <c r="F135" s="2"/>
@@ -21594,11 +21624,11 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E136" s="28"/>
       <c r="F136" s="2"/>
@@ -21654,11 +21684,11 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E137" s="28"/>
       <c r="F137" s="2"/>
@@ -21714,11 +21744,11 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E138" s="28"/>
       <c r="F138" s="2"/>
@@ -21774,11 +21804,11 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E139" s="28"/>
       <c r="F139" s="2"/>
@@ -21834,11 +21864,11 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E140" s="28"/>
       <c r="F140" s="2"/>
@@ -21894,11 +21924,11 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E141" s="28"/>
       <c r="F141" s="2"/>
@@ -21954,11 +21984,11 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E142" s="28"/>
       <c r="F142" s="2"/>
@@ -22014,11 +22044,11 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E143" s="28"/>
       <c r="F143" s="2"/>
@@ -22074,11 +22104,11 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E144" s="28"/>
       <c r="F144" s="2"/>
@@ -22134,11 +22164,11 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E145" s="28"/>
       <c r="F145" s="2"/>
@@ -22194,11 +22224,11 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E146" s="28"/>
       <c r="F146" s="2"/>
@@ -22254,11 +22284,11 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E147" s="28"/>
       <c r="F147" s="2"/>
@@ -22314,11 +22344,11 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E148" s="28"/>
       <c r="F148" s="2"/>
@@ -22374,11 +22404,11 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E149" s="28"/>
       <c r="F149" s="2"/>
@@ -22434,11 +22464,11 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E150" s="28"/>
       <c r="F150" s="2"/>
@@ -22494,11 +22524,11 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E151" s="28"/>
       <c r="F151" s="2"/>
@@ -22554,11 +22584,11 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E152" s="28"/>
       <c r="F152" s="2"/>
@@ -22614,11 +22644,11 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E153" s="28"/>
       <c r="F153" s="2"/>
@@ -22674,11 +22704,11 @@
       </c>
       <c r="C154" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E154" s="28"/>
       <c r="F154" s="2"/>
@@ -22734,11 +22764,11 @@
       </c>
       <c r="C155" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E155" s="28"/>
       <c r="F155" s="2"/>
@@ -22794,11 +22824,11 @@
       </c>
       <c r="C156" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E156" s="28"/>
       <c r="F156" s="2"/>
@@ -22854,11 +22884,11 @@
       </c>
       <c r="C157" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E157" s="28"/>
       <c r="F157" s="2"/>
@@ -22914,11 +22944,11 @@
       </c>
       <c r="C158" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E158" s="28"/>
       <c r="F158" s="2"/>
@@ -22974,11 +23004,11 @@
       </c>
       <c r="C159" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E159" s="28"/>
       <c r="F159" s="2"/>
@@ -23034,11 +23064,11 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E160" s="28"/>
       <c r="F160" s="2"/>
@@ -23094,11 +23124,11 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E161" s="28"/>
       <c r="F161" s="2"/>
@@ -23154,11 +23184,11 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E162" s="28"/>
       <c r="F162" s="2"/>
@@ -23214,11 +23244,11 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="2"/>
@@ -23274,11 +23304,11 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E164" s="28"/>
       <c r="F164" s="2"/>
@@ -23334,11 +23364,11 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E165" s="28"/>
       <c r="F165" s="2"/>
@@ -23394,11 +23424,11 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E166" s="28"/>
       <c r="F166" s="2"/>
@@ -23454,11 +23484,11 @@
       </c>
       <c r="C167" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E167" s="28"/>
       <c r="F167" s="2"/>
@@ -23514,11 +23544,11 @@
       </c>
       <c r="C168" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E168" s="28"/>
       <c r="F168" s="2"/>
@@ -23574,11 +23604,11 @@
       </c>
       <c r="C169" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E169" s="28"/>
       <c r="F169" s="2"/>
@@ -23634,11 +23664,11 @@
       </c>
       <c r="C170" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E170" s="28"/>
       <c r="F170" s="2"/>
@@ -23694,11 +23724,11 @@
       </c>
       <c r="C171" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E171" s="28"/>
       <c r="F171" s="2"/>
@@ -23754,11 +23784,11 @@
       </c>
       <c r="C172" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E172" s="28"/>
       <c r="F172" s="2"/>
@@ -23814,11 +23844,11 @@
       </c>
       <c r="C173" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E173" s="28"/>
       <c r="F173" s="2"/>
@@ -23874,11 +23904,11 @@
       </c>
       <c r="C174" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E174" s="28"/>
       <c r="F174" s="2"/>
@@ -23934,11 +23964,11 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E175" s="28"/>
       <c r="F175" s="2"/>
@@ -23994,11 +24024,11 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E176" s="28"/>
       <c r="F176" s="2"/>
@@ -24054,11 +24084,11 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E177" s="28"/>
       <c r="F177" s="2"/>
@@ -24114,11 +24144,11 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E178" s="28"/>
       <c r="F178" s="2"/>
@@ -24174,11 +24204,11 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E179" s="28"/>
       <c r="F179" s="2"/>
@@ -24234,11 +24264,11 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E180" s="28"/>
       <c r="F180" s="2"/>
@@ -24294,11 +24324,11 @@
       </c>
       <c r="C181" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E181" s="28"/>
       <c r="F181" s="2"/>
@@ -24354,11 +24384,11 @@
       </c>
       <c r="C182" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E182" s="28"/>
       <c r="F182" s="2"/>
@@ -24414,11 +24444,11 @@
       </c>
       <c r="C183" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E183" s="28"/>
       <c r="F183" s="2"/>
@@ -24474,11 +24504,11 @@
       </c>
       <c r="C184" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E184" s="28"/>
       <c r="F184" s="2"/>
@@ -24534,11 +24564,11 @@
       </c>
       <c r="C185" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E185" s="28"/>
       <c r="F185" s="2"/>
@@ -24594,11 +24624,11 @@
       </c>
       <c r="C186" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E186" s="28"/>
       <c r="F186" s="2"/>
@@ -24654,11 +24684,11 @@
       </c>
       <c r="C187" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E187" s="28"/>
       <c r="F187" s="2"/>
@@ -24714,11 +24744,11 @@
       </c>
       <c r="C188" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E188" s="28"/>
       <c r="F188" s="2"/>
@@ -24774,11 +24804,11 @@
       </c>
       <c r="C189" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E189" s="28"/>
       <c r="F189" s="2"/>
@@ -24834,11 +24864,11 @@
       </c>
       <c r="C190" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E190" s="28"/>
       <c r="F190" s="2"/>
@@ -24894,11 +24924,11 @@
       </c>
       <c r="C191" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E191" s="28"/>
       <c r="F191" s="2"/>
@@ -24954,11 +24984,11 @@
       </c>
       <c r="C192" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E192" s="28"/>
       <c r="F192" s="2"/>
@@ -25014,11 +25044,11 @@
       </c>
       <c r="C193" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E193" s="28"/>
       <c r="F193" s="2"/>
@@ -25074,11 +25104,11 @@
       </c>
       <c r="C194" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E194" s="28"/>
       <c r="F194" s="2"/>
@@ -25134,11 +25164,11 @@
       </c>
       <c r="C195" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E195" s="28"/>
       <c r="F195" s="2"/>
@@ -25194,11 +25224,11 @@
       </c>
       <c r="C196" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E196" s="28"/>
       <c r="F196" s="2"/>
@@ -25254,11 +25284,11 @@
       </c>
       <c r="C197" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E197" s="28"/>
       <c r="F197" s="2"/>
@@ -25314,11 +25344,11 @@
       </c>
       <c r="C198" s="1">
         <f t="shared" si="17"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="18"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E198" s="28"/>
       <c r="F198" s="2"/>
@@ -25374,11 +25404,11 @@
       </c>
       <c r="C199" s="1">
         <f t="shared" ref="C199:C262" si="25">D198</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" ref="D199:D262" si="26">IF(E199="DONE",C199+(F199/1440)+(G199/86400),C199)</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E199" s="28"/>
       <c r="F199" s="2"/>
@@ -25434,11 +25464,11 @@
       </c>
       <c r="C200" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E200" s="28"/>
       <c r="F200" s="2"/>
@@ -25494,11 +25524,11 @@
       </c>
       <c r="C201" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E201" s="28"/>
       <c r="F201" s="2"/>
@@ -25554,11 +25584,11 @@
       </c>
       <c r="C202" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E202" s="28"/>
       <c r="F202" s="2"/>
@@ -25614,11 +25644,11 @@
       </c>
       <c r="C203" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E203" s="28"/>
       <c r="F203" s="2"/>
@@ -25674,11 +25704,11 @@
       </c>
       <c r="C204" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E204" s="28"/>
       <c r="F204" s="2"/>
@@ -25734,11 +25764,11 @@
       </c>
       <c r="C205" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E205" s="28"/>
       <c r="F205" s="2"/>
@@ -25794,11 +25824,11 @@
       </c>
       <c r="C206" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D206" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E206" s="28"/>
       <c r="F206" s="2"/>
@@ -25854,11 +25884,11 @@
       </c>
       <c r="C207" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D207" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E207" s="28"/>
       <c r="F207" s="2"/>
@@ -25914,11 +25944,11 @@
       </c>
       <c r="C208" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E208" s="28"/>
       <c r="F208" s="2"/>
@@ -25974,11 +26004,11 @@
       </c>
       <c r="C209" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D209" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E209" s="28"/>
       <c r="F209" s="2"/>
@@ -26034,11 +26064,11 @@
       </c>
       <c r="C210" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D210" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E210" s="28"/>
       <c r="F210" s="2"/>
@@ -26094,11 +26124,11 @@
       </c>
       <c r="C211" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E211" s="28"/>
       <c r="F211" s="2"/>
@@ -26154,11 +26184,11 @@
       </c>
       <c r="C212" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E212" s="28"/>
       <c r="F212" s="2"/>
@@ -26214,11 +26244,11 @@
       </c>
       <c r="C213" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D213" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E213" s="28"/>
       <c r="F213" s="2"/>
@@ -26274,11 +26304,11 @@
       </c>
       <c r="C214" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D214" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E214" s="28"/>
       <c r="F214" s="2"/>
@@ -26334,11 +26364,11 @@
       </c>
       <c r="C215" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E215" s="28"/>
       <c r="F215" s="2"/>
@@ -26394,11 +26424,11 @@
       </c>
       <c r="C216" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D216" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E216" s="28"/>
       <c r="F216" s="2"/>
@@ -26454,11 +26484,11 @@
       </c>
       <c r="C217" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E217" s="28"/>
       <c r="F217" s="2"/>
@@ -26514,11 +26544,11 @@
       </c>
       <c r="C218" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E218" s="28"/>
       <c r="F218" s="2"/>
@@ -26574,11 +26604,11 @@
       </c>
       <c r="C219" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E219" s="28"/>
       <c r="F219" s="2"/>
@@ -26634,11 +26664,11 @@
       </c>
       <c r="C220" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D220" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E220" s="28"/>
       <c r="F220" s="2"/>
@@ -26694,11 +26724,11 @@
       </c>
       <c r="C221" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D221" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E221" s="28"/>
       <c r="F221" s="2"/>
@@ -26754,11 +26784,11 @@
       </c>
       <c r="C222" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E222" s="28"/>
       <c r="F222" s="2"/>
@@ -26814,11 +26844,11 @@
       </c>
       <c r="C223" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D223" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E223" s="28"/>
       <c r="F223" s="2"/>
@@ -26874,11 +26904,11 @@
       </c>
       <c r="C224" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E224" s="28"/>
       <c r="F224" s="2"/>
@@ -26934,11 +26964,11 @@
       </c>
       <c r="C225" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E225" s="28"/>
       <c r="F225" s="2"/>
@@ -26994,11 +27024,11 @@
       </c>
       <c r="C226" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E226" s="28"/>
       <c r="F226" s="2"/>
@@ -27054,11 +27084,11 @@
       </c>
       <c r="C227" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D227" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E227" s="28"/>
       <c r="F227" s="2"/>
@@ -27114,11 +27144,11 @@
       </c>
       <c r="C228" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E228" s="28"/>
       <c r="F228" s="2"/>
@@ -27174,11 +27204,11 @@
       </c>
       <c r="C229" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D229" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="2"/>
@@ -27234,11 +27264,11 @@
       </c>
       <c r="C230" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E230" s="28"/>
       <c r="F230" s="2"/>
@@ -27294,11 +27324,11 @@
       </c>
       <c r="C231" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E231" s="28"/>
       <c r="F231" s="2"/>
@@ -27354,11 +27384,11 @@
       </c>
       <c r="C232" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="2"/>
@@ -27414,11 +27444,11 @@
       </c>
       <c r="C233" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D233" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E233" s="28"/>
       <c r="F233" s="2"/>
@@ -27474,11 +27504,11 @@
       </c>
       <c r="C234" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="2"/>
@@ -27534,11 +27564,11 @@
       </c>
       <c r="C235" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D235" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="2"/>
@@ -27594,11 +27624,11 @@
       </c>
       <c r="C236" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D236" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E236" s="28"/>
       <c r="F236" s="2"/>
@@ -27654,11 +27684,11 @@
       </c>
       <c r="C237" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D237" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E237" s="28"/>
       <c r="F237" s="2"/>
@@ -27714,11 +27744,11 @@
       </c>
       <c r="C238" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D238" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E238" s="28"/>
       <c r="F238" s="2"/>
@@ -27774,11 +27804,11 @@
       </c>
       <c r="C239" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E239" s="28"/>
       <c r="F239" s="2"/>
@@ -27834,11 +27864,11 @@
       </c>
       <c r="C240" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E240" s="28"/>
       <c r="F240" s="2"/>
@@ -27894,11 +27924,11 @@
       </c>
       <c r="C241" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E241" s="28"/>
       <c r="F241" s="2"/>
@@ -27954,11 +27984,11 @@
       </c>
       <c r="C242" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D242" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E242" s="28"/>
       <c r="F242" s="2"/>
@@ -28014,11 +28044,11 @@
       </c>
       <c r="C243" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D243" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E243" s="28"/>
       <c r="F243" s="2"/>
@@ -28074,11 +28104,11 @@
       </c>
       <c r="C244" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="2"/>
@@ -28134,11 +28164,11 @@
       </c>
       <c r="C245" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D245" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E245" s="28"/>
       <c r="F245" s="2"/>
@@ -28194,11 +28224,11 @@
       </c>
       <c r="C246" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D246" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E246" s="28"/>
       <c r="F246" s="2"/>
@@ -28254,11 +28284,11 @@
       </c>
       <c r="C247" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D247" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E247" s="28"/>
       <c r="F247" s="2"/>
@@ -28314,11 +28344,11 @@
       </c>
       <c r="C248" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D248" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="2"/>
@@ -28374,11 +28404,11 @@
       </c>
       <c r="C249" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D249" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="2"/>
@@ -28434,11 +28464,11 @@
       </c>
       <c r="C250" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D250" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E250" s="28"/>
       <c r="F250" s="2"/>
@@ -28494,11 +28524,11 @@
       </c>
       <c r="C251" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D251" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E251" s="28"/>
       <c r="F251" s="2"/>
@@ -28554,11 +28584,11 @@
       </c>
       <c r="C252" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E252" s="28"/>
       <c r="F252" s="2"/>
@@ -28614,11 +28644,11 @@
       </c>
       <c r="C253" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D253" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E253" s="28"/>
       <c r="F253" s="2"/>
@@ -28674,11 +28704,11 @@
       </c>
       <c r="C254" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D254" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E254" s="28"/>
       <c r="F254" s="2"/>
@@ -28734,11 +28764,11 @@
       </c>
       <c r="C255" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D255" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E255" s="28"/>
       <c r="F255" s="2"/>
@@ -28794,11 +28824,11 @@
       </c>
       <c r="C256" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E256" s="28"/>
       <c r="F256" s="2"/>
@@ -28854,11 +28884,11 @@
       </c>
       <c r="C257" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D257" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E257" s="28"/>
       <c r="F257" s="2"/>
@@ -28914,11 +28944,11 @@
       </c>
       <c r="C258" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D258" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E258" s="28"/>
       <c r="F258" s="2"/>
@@ -28974,11 +29004,11 @@
       </c>
       <c r="C259" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D259" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E259" s="28"/>
       <c r="F259" s="2"/>
@@ -29034,11 +29064,11 @@
       </c>
       <c r="C260" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E260" s="28"/>
       <c r="F260" s="2"/>
@@ -29094,11 +29124,11 @@
       </c>
       <c r="C261" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D261" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E261" s="28"/>
       <c r="F261" s="2"/>
@@ -29154,11 +29184,11 @@
       </c>
       <c r="C262" s="1">
         <f t="shared" si="25"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D262" s="1">
         <f t="shared" si="26"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E262" s="28"/>
       <c r="F262" s="2"/>
@@ -29214,11 +29244,11 @@
       </c>
       <c r="C263" s="1">
         <f t="shared" ref="C263:C326" si="33">D262</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D263" s="1">
         <f t="shared" ref="D263:D326" si="34">IF(E263="DONE",C263+(F263/1440)+(G263/86400),C263)</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E263" s="28"/>
       <c r="F263" s="2"/>
@@ -29274,11 +29304,11 @@
       </c>
       <c r="C264" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D264" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E264" s="28"/>
       <c r="F264" s="2"/>
@@ -29334,11 +29364,11 @@
       </c>
       <c r="C265" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D265" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E265" s="28"/>
       <c r="F265" s="2"/>
@@ -29394,11 +29424,11 @@
       </c>
       <c r="C266" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D266" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E266" s="28"/>
       <c r="F266" s="2"/>
@@ -29454,11 +29484,11 @@
       </c>
       <c r="C267" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D267" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E267" s="28"/>
       <c r="F267" s="2"/>
@@ -29514,11 +29544,11 @@
       </c>
       <c r="C268" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D268" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E268" s="28"/>
       <c r="F268" s="2"/>
@@ -29574,11 +29604,11 @@
       </c>
       <c r="C269" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D269" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E269" s="28"/>
       <c r="F269" s="2"/>
@@ -29634,11 +29664,11 @@
       </c>
       <c r="C270" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D270" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E270" s="28"/>
       <c r="F270" s="2"/>
@@ -29694,11 +29724,11 @@
       </c>
       <c r="C271" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D271" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E271" s="28"/>
       <c r="F271" s="2"/>
@@ -29754,11 +29784,11 @@
       </c>
       <c r="C272" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D272" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E272" s="28"/>
       <c r="F272" s="2"/>
@@ -29814,11 +29844,11 @@
       </c>
       <c r="C273" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D273" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E273" s="28"/>
       <c r="F273" s="2"/>
@@ -29874,11 +29904,11 @@
       </c>
       <c r="C274" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D274" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E274" s="28"/>
       <c r="F274" s="2"/>
@@ -29934,11 +29964,11 @@
       </c>
       <c r="C275" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D275" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E275" s="28"/>
       <c r="F275" s="2"/>
@@ -29994,11 +30024,11 @@
       </c>
       <c r="C276" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D276" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E276" s="28"/>
       <c r="F276" s="2"/>
@@ -30054,11 +30084,11 @@
       </c>
       <c r="C277" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D277" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E277" s="28"/>
       <c r="F277" s="2"/>
@@ -30114,11 +30144,11 @@
       </c>
       <c r="C278" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D278" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E278" s="28"/>
       <c r="F278" s="2"/>
@@ -30174,11 +30204,11 @@
       </c>
       <c r="C279" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D279" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E279" s="28"/>
       <c r="F279" s="2"/>
@@ -30234,11 +30264,11 @@
       </c>
       <c r="C280" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D280" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E280" s="28"/>
       <c r="F280" s="2"/>
@@ -30294,11 +30324,11 @@
       </c>
       <c r="C281" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D281" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E281" s="28"/>
       <c r="F281" s="2"/>
@@ -30354,11 +30384,11 @@
       </c>
       <c r="C282" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D282" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E282" s="28"/>
       <c r="F282" s="2"/>
@@ -30414,11 +30444,11 @@
       </c>
       <c r="C283" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D283" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E283" s="28"/>
       <c r="F283" s="2"/>
@@ -30474,11 +30504,11 @@
       </c>
       <c r="C284" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D284" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E284" s="28"/>
       <c r="F284" s="2"/>
@@ -30534,11 +30564,11 @@
       </c>
       <c r="C285" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D285" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E285" s="28"/>
       <c r="F285" s="2"/>
@@ -30594,11 +30624,11 @@
       </c>
       <c r="C286" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D286" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E286" s="28"/>
       <c r="F286" s="2"/>
@@ -30654,11 +30684,11 @@
       </c>
       <c r="C287" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D287" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E287" s="28"/>
       <c r="F287" s="2"/>
@@ -30714,11 +30744,11 @@
       </c>
       <c r="C288" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D288" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E288" s="28"/>
       <c r="F288" s="2"/>
@@ -30774,11 +30804,11 @@
       </c>
       <c r="C289" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D289" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E289" s="28"/>
       <c r="F289" s="2"/>
@@ -30834,11 +30864,11 @@
       </c>
       <c r="C290" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E290" s="28"/>
       <c r="F290" s="2"/>
@@ -30894,11 +30924,11 @@
       </c>
       <c r="C291" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D291" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E291" s="28"/>
       <c r="F291" s="2"/>
@@ -30954,11 +30984,11 @@
       </c>
       <c r="C292" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D292" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E292" s="28"/>
       <c r="F292" s="2"/>
@@ -31014,11 +31044,11 @@
       </c>
       <c r="C293" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D293" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E293" s="28"/>
       <c r="F293" s="2"/>
@@ -31074,11 +31104,11 @@
       </c>
       <c r="C294" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D294" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E294" s="28"/>
       <c r="F294" s="2"/>
@@ -31134,11 +31164,11 @@
       </c>
       <c r="C295" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D295" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E295" s="28"/>
       <c r="F295" s="2"/>
@@ -31194,11 +31224,11 @@
       </c>
       <c r="C296" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D296" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E296" s="28"/>
       <c r="F296" s="2"/>
@@ -31254,11 +31284,11 @@
       </c>
       <c r="C297" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D297" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="2"/>
@@ -31314,11 +31344,11 @@
       </c>
       <c r="C298" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D298" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E298" s="28"/>
       <c r="F298" s="2"/>
@@ -31374,11 +31404,11 @@
       </c>
       <c r="C299" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D299" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E299" s="28"/>
       <c r="F299" s="2"/>
@@ -31434,11 +31464,11 @@
       </c>
       <c r="C300" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D300" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E300" s="28"/>
       <c r="F300" s="2"/>
@@ -31494,11 +31524,11 @@
       </c>
       <c r="C301" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D301" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E301" s="28"/>
       <c r="F301" s="2"/>
@@ -31554,11 +31584,11 @@
       </c>
       <c r="C302" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D302" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E302" s="28"/>
       <c r="F302" s="2"/>
@@ -31614,11 +31644,11 @@
       </c>
       <c r="C303" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D303" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E303" s="28"/>
       <c r="F303" s="2"/>
@@ -31674,11 +31704,11 @@
       </c>
       <c r="C304" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D304" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E304" s="28"/>
       <c r="F304" s="2"/>
@@ -31734,11 +31764,11 @@
       </c>
       <c r="C305" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D305" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E305" s="28"/>
       <c r="F305" s="2"/>
@@ -31794,11 +31824,11 @@
       </c>
       <c r="C306" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D306" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E306" s="28"/>
       <c r="F306" s="2"/>
@@ -31854,11 +31884,11 @@
       </c>
       <c r="C307" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D307" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E307" s="28"/>
       <c r="F307" s="2"/>
@@ -31914,11 +31944,11 @@
       </c>
       <c r="C308" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D308" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E308" s="28"/>
       <c r="F308" s="2"/>
@@ -31974,11 +32004,11 @@
       </c>
       <c r="C309" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D309" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E309" s="28"/>
       <c r="F309" s="2"/>
@@ -32034,11 +32064,11 @@
       </c>
       <c r="C310" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D310" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E310" s="28"/>
       <c r="F310" s="2"/>
@@ -32094,11 +32124,11 @@
       </c>
       <c r="C311" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D311" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E311" s="28"/>
       <c r="F311" s="2"/>
@@ -32154,11 +32184,11 @@
       </c>
       <c r="C312" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D312" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E312" s="28"/>
       <c r="F312" s="2"/>
@@ -32214,11 +32244,11 @@
       </c>
       <c r="C313" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D313" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E313" s="28"/>
       <c r="F313" s="2"/>
@@ -32274,11 +32304,11 @@
       </c>
       <c r="C314" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D314" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E314" s="28"/>
       <c r="F314" s="2"/>
@@ -32334,11 +32364,11 @@
       </c>
       <c r="C315" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D315" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E315" s="28"/>
       <c r="F315" s="2"/>
@@ -32394,11 +32424,11 @@
       </c>
       <c r="C316" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D316" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E316" s="28"/>
       <c r="F316" s="2"/>
@@ -32454,11 +32484,11 @@
       </c>
       <c r="C317" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D317" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E317" s="28"/>
       <c r="F317" s="2"/>
@@ -32514,11 +32544,11 @@
       </c>
       <c r="C318" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D318" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E318" s="28"/>
       <c r="F318" s="2"/>
@@ -32574,11 +32604,11 @@
       </c>
       <c r="C319" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D319" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E319" s="28"/>
       <c r="F319" s="2"/>
@@ -32634,11 +32664,11 @@
       </c>
       <c r="C320" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D320" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E320" s="28"/>
       <c r="F320" s="2"/>
@@ -32694,11 +32724,11 @@
       </c>
       <c r="C321" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D321" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E321" s="28"/>
       <c r="F321" s="2"/>
@@ -32754,11 +32784,11 @@
       </c>
       <c r="C322" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D322" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E322" s="28"/>
       <c r="F322" s="2"/>
@@ -32814,11 +32844,11 @@
       </c>
       <c r="C323" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D323" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E323" s="28"/>
       <c r="F323" s="2"/>
@@ -32874,11 +32904,11 @@
       </c>
       <c r="C324" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D324" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E324" s="28"/>
       <c r="F324" s="2"/>
@@ -32934,11 +32964,11 @@
       </c>
       <c r="C325" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D325" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E325" s="28"/>
       <c r="F325" s="2"/>
@@ -32994,11 +33024,11 @@
       </c>
       <c r="C326" s="1">
         <f t="shared" si="33"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D326" s="1">
         <f t="shared" si="34"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E326" s="28"/>
       <c r="F326" s="2"/>
@@ -33054,11 +33084,11 @@
       </c>
       <c r="C327" s="1">
         <f t="shared" ref="C327:C369" si="41">D326</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D327" s="1">
         <f t="shared" ref="D327:D369" si="42">IF(E327="DONE",C327+(F327/1440)+(G327/86400),C327)</f>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E327" s="28"/>
       <c r="F327" s="2"/>
@@ -33114,11 +33144,11 @@
       </c>
       <c r="C328" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D328" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E328" s="28"/>
       <c r="F328" s="2"/>
@@ -33174,11 +33204,11 @@
       </c>
       <c r="C329" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D329" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E329" s="28"/>
       <c r="F329" s="2"/>
@@ -33234,11 +33264,11 @@
       </c>
       <c r="C330" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D330" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E330" s="28"/>
       <c r="F330" s="2"/>
@@ -33294,11 +33324,11 @@
       </c>
       <c r="C331" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D331" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E331" s="28"/>
       <c r="F331" s="2"/>
@@ -33354,11 +33384,11 @@
       </c>
       <c r="C332" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D332" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E332" s="28"/>
       <c r="F332" s="2"/>
@@ -33414,11 +33444,11 @@
       </c>
       <c r="C333" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D333" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E333" s="28"/>
       <c r="F333" s="2"/>
@@ -33474,11 +33504,11 @@
       </c>
       <c r="C334" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D334" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E334" s="28"/>
       <c r="F334" s="2"/>
@@ -33534,11 +33564,11 @@
       </c>
       <c r="C335" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D335" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E335" s="28"/>
       <c r="F335" s="2"/>
@@ -33594,11 +33624,11 @@
       </c>
       <c r="C336" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D336" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E336" s="28"/>
       <c r="F336" s="2"/>
@@ -33654,11 +33684,11 @@
       </c>
       <c r="C337" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D337" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E337" s="28"/>
       <c r="F337" s="2"/>
@@ -33714,11 +33744,11 @@
       </c>
       <c r="C338" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D338" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E338" s="28"/>
       <c r="F338" s="2"/>
@@ -33774,11 +33804,11 @@
       </c>
       <c r="C339" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D339" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E339" s="28"/>
       <c r="F339" s="2"/>
@@ -33834,11 +33864,11 @@
       </c>
       <c r="C340" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D340" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E340" s="28"/>
       <c r="F340" s="2"/>
@@ -33894,11 +33924,11 @@
       </c>
       <c r="C341" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D341" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E341" s="28"/>
       <c r="F341" s="2"/>
@@ -33954,11 +33984,11 @@
       </c>
       <c r="C342" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D342" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E342" s="28"/>
       <c r="F342" s="2"/>
@@ -34014,11 +34044,11 @@
       </c>
       <c r="C343" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D343" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E343" s="28"/>
       <c r="F343" s="2"/>
@@ -34074,11 +34104,11 @@
       </c>
       <c r="C344" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D344" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E344" s="28"/>
       <c r="F344" s="2"/>
@@ -34134,11 +34164,11 @@
       </c>
       <c r="C345" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D345" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E345" s="28"/>
       <c r="F345" s="2"/>
@@ -34194,11 +34224,11 @@
       </c>
       <c r="C346" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D346" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E346" s="28"/>
       <c r="F346" s="2"/>
@@ -34254,11 +34284,11 @@
       </c>
       <c r="C347" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D347" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E347" s="28"/>
       <c r="F347" s="2"/>
@@ -34314,11 +34344,11 @@
       </c>
       <c r="C348" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D348" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E348" s="28"/>
       <c r="F348" s="2"/>
@@ -34374,11 +34404,11 @@
       </c>
       <c r="C349" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D349" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E349" s="28"/>
       <c r="F349" s="2"/>
@@ -34434,11 +34464,11 @@
       </c>
       <c r="C350" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D350" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E350" s="28"/>
       <c r="F350" s="2"/>
@@ -34494,11 +34524,11 @@
       </c>
       <c r="C351" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D351" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E351" s="28"/>
       <c r="F351" s="2"/>
@@ -34554,11 +34584,11 @@
       </c>
       <c r="C352" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D352" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E352" s="28"/>
       <c r="F352" s="2"/>
@@ -34614,11 +34644,11 @@
       </c>
       <c r="C353" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D353" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E353" s="28"/>
       <c r="F353" s="2"/>
@@ -34674,11 +34704,11 @@
       </c>
       <c r="C354" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D354" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E354" s="28"/>
       <c r="F354" s="2"/>
@@ -34734,11 +34764,11 @@
       </c>
       <c r="C355" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D355" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E355" s="28"/>
       <c r="F355" s="2"/>
@@ -34794,11 +34824,11 @@
       </c>
       <c r="C356" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D356" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E356" s="28"/>
       <c r="F356" s="2"/>
@@ -34854,11 +34884,11 @@
       </c>
       <c r="C357" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D357" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E357" s="28"/>
       <c r="F357" s="2"/>
@@ -34914,11 +34944,11 @@
       </c>
       <c r="C358" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D358" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E358" s="28"/>
       <c r="F358" s="2"/>
@@ -34974,11 +35004,11 @@
       </c>
       <c r="C359" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D359" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E359" s="28"/>
       <c r="F359" s="2"/>
@@ -35034,11 +35064,11 @@
       </c>
       <c r="C360" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D360" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E360" s="28"/>
       <c r="F360" s="2"/>
@@ -35094,11 +35124,11 @@
       </c>
       <c r="C361" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D361" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E361" s="28"/>
       <c r="F361" s="2"/>
@@ -35154,11 +35184,11 @@
       </c>
       <c r="C362" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D362" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E362" s="28"/>
       <c r="F362" s="2"/>
@@ -35214,11 +35244,11 @@
       </c>
       <c r="C363" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D363" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="2"/>
@@ -35274,11 +35304,11 @@
       </c>
       <c r="C364" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D364" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="2"/>
@@ -35334,11 +35364,11 @@
       </c>
       <c r="C365" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D365" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="2"/>
@@ -35394,11 +35424,11 @@
       </c>
       <c r="C366" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D366" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E366" s="28"/>
       <c r="F366" s="2"/>
@@ -35454,11 +35484,11 @@
       </c>
       <c r="C367" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D367" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E367" s="28"/>
       <c r="F367" s="2"/>
@@ -35514,11 +35544,11 @@
       </c>
       <c r="C368" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D368" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E368" s="28"/>
       <c r="F368" s="2"/>
@@ -35574,11 +35604,11 @@
       </c>
       <c r="C369" s="1">
         <f t="shared" si="41"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="D369" s="1">
         <f t="shared" si="42"/>
-        <v>8.379629629629631E-3</v>
+        <v>1.8391203703703701E-2</v>
       </c>
       <c r="E369" s="28"/>
       <c r="F369" s="2"/>

--- a/2025 Track.xlsx
+++ b/2025 Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0585D0F9-5D10-4EB4-BC1B-890C67EC8547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2342F3-0C4F-45E6-B93F-0945C7313C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13243,7 +13243,7 @@
   <dimension ref="A1:X370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -13356,11 +13356,11 @@
       <c r="E3" s="61"/>
       <c r="F3" s="26">
         <f>(F4/60)+(G4/3600)</f>
-        <v>0.49611111111111111</v>
+        <v>0.65527777777777774</v>
       </c>
       <c r="G3" s="25">
         <f>F4+(G4/60)</f>
-        <v>29.766666666666666</v>
+        <v>39.316666666666663</v>
       </c>
       <c r="H3" s="60"/>
       <c r="I3" s="61"/>
@@ -13410,11 +13410,11 @@
       </c>
       <c r="F4" s="7">
         <f>SUMIFS(F$5:F$369,E$5:E$369,"DONE")</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7">
         <f>SUMIFS(G$5:G$369,$K$5:$K$369,"DONE")</f>
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>0</v>
@@ -14251,13 +14251,17 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.4317129629629626E-2</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15</v>
+      </c>
       <c r="H15" s="39">
         <v>45668</v>
       </c>
@@ -14320,17 +14324,21 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.4317129629629626E-2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18</v>
+      </c>
       <c r="H16" s="39">
         <v>45669</v>
       </c>
@@ -14393,11 +14401,11 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="2"/>
@@ -14464,11 +14472,11 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="2"/>
@@ -14535,11 +14543,11 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="2"/>
@@ -14601,11 +14609,11 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="2"/>
@@ -14667,11 +14675,11 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="2"/>
@@ -14733,11 +14741,11 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="2"/>
@@ -14793,11 +14801,11 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="2"/>
@@ -14853,11 +14861,11 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="2"/>
@@ -14913,11 +14921,11 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="2"/>
@@ -14973,11 +14981,11 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="2"/>
@@ -15033,11 +15041,11 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="2"/>
@@ -15093,11 +15101,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="2"/>
@@ -15153,11 +15161,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="2"/>
@@ -15213,11 +15221,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="2"/>
@@ -15273,11 +15281,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="2"/>
@@ -15333,11 +15341,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="2"/>
@@ -15393,11 +15401,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="2"/>
@@ -15453,11 +15461,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="2"/>
@@ -15513,11 +15521,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="2"/>
@@ -15573,11 +15581,11 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="2"/>
@@ -15633,11 +15641,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="2"/>
@@ -15693,11 +15701,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="2"/>
@@ -15753,11 +15761,11 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="2"/>
@@ -15813,11 +15821,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="2"/>
@@ -15873,11 +15881,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="2"/>
@@ -15933,11 +15941,11 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="2"/>
@@ -15993,11 +16001,11 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="2"/>
@@ -16053,11 +16061,11 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="2"/>
@@ -16113,11 +16121,11 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="2"/>
@@ -16173,11 +16181,11 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="2"/>
@@ -16233,11 +16241,11 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="2"/>
@@ -16293,11 +16301,11 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="2"/>
@@ -16353,11 +16361,11 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="2"/>
@@ -16413,11 +16421,11 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="2"/>
@@ -16473,11 +16481,11 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="2"/>
@@ -16533,11 +16541,11 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="2"/>
@@ -16593,11 +16601,11 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="2"/>
@@ -16653,11 +16661,11 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="2"/>
@@ -16713,11 +16721,11 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="2"/>
@@ -16773,11 +16781,11 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="2"/>
@@ -16833,11 +16841,11 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="2"/>
@@ -16893,11 +16901,11 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="2"/>
@@ -16953,11 +16961,11 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="2"/>
@@ -17013,11 +17021,11 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="2"/>
@@ -17073,11 +17081,11 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="2"/>
@@ -17133,11 +17141,11 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="2"/>
@@ -17193,11 +17201,11 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="2"/>
@@ -17253,11 +17261,11 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="2"/>
@@ -17313,11 +17321,11 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="2"/>
@@ -17373,11 +17381,11 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="2"/>
@@ -17433,11 +17441,11 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="2"/>
@@ -17493,11 +17501,11 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="2"/>
@@ -17553,11 +17561,11 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="2"/>
@@ -17613,11 +17621,11 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="2"/>
@@ -17673,11 +17681,11 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ref="C71:C134" si="9">D70</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" ref="D71:D134" si="10">IF(E71="DONE",C71+(F71/1440)+(G71/86400),C71)</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="2"/>
@@ -17733,11 +17741,11 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="2"/>
@@ -17793,11 +17801,11 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="2"/>
@@ -17853,11 +17861,11 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="2"/>
@@ -17913,11 +17921,11 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="2"/>
@@ -17973,11 +17981,11 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="2"/>
@@ -18033,11 +18041,11 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="2"/>
@@ -18093,11 +18101,11 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="2"/>
@@ -18153,11 +18161,11 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="2"/>
@@ -18213,11 +18221,11 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="2"/>
@@ -18273,11 +18281,11 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="2"/>
@@ -18333,11 +18341,11 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="2"/>
@@ -18393,11 +18401,11 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="2"/>
@@ -18453,11 +18461,11 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="2"/>
@@ -18513,11 +18521,11 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="2"/>
@@ -18573,11 +18581,11 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="2"/>
@@ -18633,11 +18641,11 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="2"/>
@@ -18693,11 +18701,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="2"/>
@@ -18753,11 +18761,11 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="2"/>
@@ -18813,11 +18821,11 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="2"/>
@@ -18873,11 +18881,11 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="2"/>
@@ -18933,11 +18941,11 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="2"/>
@@ -18993,11 +19001,11 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="2"/>
@@ -19053,11 +19061,11 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="2"/>
@@ -19113,11 +19121,11 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="2"/>
@@ -19173,11 +19181,11 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="2"/>
@@ -19233,11 +19241,11 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="2"/>
@@ -19299,11 +19307,11 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="2"/>
@@ -19365,11 +19373,11 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="2"/>
@@ -19431,11 +19439,11 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="2"/>
@@ -19497,11 +19505,11 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="2"/>
@@ -19563,11 +19571,11 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="2"/>
@@ -19629,11 +19637,11 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="2"/>
@@ -19695,11 +19703,11 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="2"/>
@@ -19761,11 +19769,11 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="2"/>
@@ -19827,11 +19835,11 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="2"/>
@@ -19893,11 +19901,11 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="2"/>
@@ -19959,11 +19967,11 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="2"/>
@@ -20019,11 +20027,11 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="2"/>
@@ -20079,11 +20087,11 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="2"/>
@@ -20139,11 +20147,11 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="2"/>
@@ -20199,11 +20207,11 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="2"/>
@@ -20259,11 +20267,11 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="2"/>
@@ -20319,11 +20327,11 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="2"/>
@@ -20379,11 +20387,11 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="2"/>
@@ -20439,11 +20447,11 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="2"/>
@@ -20499,11 +20507,11 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="2"/>
@@ -20559,11 +20567,11 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="2"/>
@@ -20619,11 +20627,11 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="2"/>
@@ -20679,11 +20687,11 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="2"/>
@@ -20739,11 +20747,11 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="2"/>
@@ -20799,11 +20807,11 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="2"/>
@@ -20859,11 +20867,11 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="2"/>
@@ -20919,11 +20927,11 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="2"/>
@@ -20979,11 +20987,11 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="2"/>
@@ -21039,11 +21047,11 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="2"/>
@@ -21099,11 +21107,11 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="2"/>
@@ -21159,11 +21167,11 @@
       </c>
       <c r="C128" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="2"/>
@@ -21219,11 +21227,11 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="2"/>
@@ -21279,11 +21287,11 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="2"/>
@@ -21339,11 +21347,11 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E131" s="28"/>
       <c r="F131" s="2"/>
@@ -21399,11 +21407,11 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E132" s="28"/>
       <c r="F132" s="2"/>
@@ -21459,11 +21467,11 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="2"/>
@@ -21519,11 +21527,11 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" si="9"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="10"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E134" s="28"/>
       <c r="F134" s="2"/>
@@ -21579,11 +21587,11 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" ref="C135:C198" si="17">D134</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" ref="D135:D198" si="18">IF(E135="DONE",C135+(F135/1440)+(G135/86400),C135)</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E135" s="28"/>
       <c r="F135" s="2"/>
@@ -21639,11 +21647,11 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E136" s="28"/>
       <c r="F136" s="2"/>
@@ -21699,11 +21707,11 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E137" s="28"/>
       <c r="F137" s="2"/>
@@ -21759,11 +21767,11 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E138" s="28"/>
       <c r="F138" s="2"/>
@@ -21819,11 +21827,11 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E139" s="28"/>
       <c r="F139" s="2"/>
@@ -21879,11 +21887,11 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E140" s="28"/>
       <c r="F140" s="2"/>
@@ -21939,11 +21947,11 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E141" s="28"/>
       <c r="F141" s="2"/>
@@ -21999,11 +22007,11 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E142" s="28"/>
       <c r="F142" s="2"/>
@@ -22059,11 +22067,11 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E143" s="28"/>
       <c r="F143" s="2"/>
@@ -22119,11 +22127,11 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E144" s="28"/>
       <c r="F144" s="2"/>
@@ -22179,11 +22187,11 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E145" s="28"/>
       <c r="F145" s="2"/>
@@ -22239,11 +22247,11 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E146" s="28"/>
       <c r="F146" s="2"/>
@@ -22299,11 +22307,11 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E147" s="28"/>
       <c r="F147" s="2"/>
@@ -22359,11 +22367,11 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E148" s="28"/>
       <c r="F148" s="2"/>
@@ -22419,11 +22427,11 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E149" s="28"/>
       <c r="F149" s="2"/>
@@ -22479,11 +22487,11 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E150" s="28"/>
       <c r="F150" s="2"/>
@@ -22539,11 +22547,11 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E151" s="28"/>
       <c r="F151" s="2"/>
@@ -22599,11 +22607,11 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E152" s="28"/>
       <c r="F152" s="2"/>
@@ -22659,11 +22667,11 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E153" s="28"/>
       <c r="F153" s="2"/>
@@ -22719,11 +22727,11 @@
       </c>
       <c r="C154" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E154" s="28"/>
       <c r="F154" s="2"/>
@@ -22779,11 +22787,11 @@
       </c>
       <c r="C155" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E155" s="28"/>
       <c r="F155" s="2"/>
@@ -22839,11 +22847,11 @@
       </c>
       <c r="C156" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E156" s="28"/>
       <c r="F156" s="2"/>
@@ -22899,11 +22907,11 @@
       </c>
       <c r="C157" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E157" s="28"/>
       <c r="F157" s="2"/>
@@ -22959,11 +22967,11 @@
       </c>
       <c r="C158" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E158" s="28"/>
       <c r="F158" s="2"/>
@@ -23019,11 +23027,11 @@
       </c>
       <c r="C159" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E159" s="28"/>
       <c r="F159" s="2"/>
@@ -23079,11 +23087,11 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E160" s="28"/>
       <c r="F160" s="2"/>
@@ -23139,11 +23147,11 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E161" s="28"/>
       <c r="F161" s="2"/>
@@ -23199,11 +23207,11 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E162" s="28"/>
       <c r="F162" s="2"/>
@@ -23259,11 +23267,11 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="2"/>
@@ -23319,11 +23327,11 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E164" s="28"/>
       <c r="F164" s="2"/>
@@ -23379,11 +23387,11 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E165" s="28"/>
       <c r="F165" s="2"/>
@@ -23439,11 +23447,11 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E166" s="28"/>
       <c r="F166" s="2"/>
@@ -23499,11 +23507,11 @@
       </c>
       <c r="C167" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E167" s="28"/>
       <c r="F167" s="2"/>
@@ -23559,11 +23567,11 @@
       </c>
       <c r="C168" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E168" s="28"/>
       <c r="F168" s="2"/>
@@ -23619,11 +23627,11 @@
       </c>
       <c r="C169" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E169" s="28"/>
       <c r="F169" s="2"/>
@@ -23679,11 +23687,11 @@
       </c>
       <c r="C170" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E170" s="28"/>
       <c r="F170" s="2"/>
@@ -23739,11 +23747,11 @@
       </c>
       <c r="C171" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E171" s="28"/>
       <c r="F171" s="2"/>
@@ -23799,11 +23807,11 @@
       </c>
       <c r="C172" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E172" s="28"/>
       <c r="F172" s="2"/>
@@ -23859,11 +23867,11 @@
       </c>
       <c r="C173" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E173" s="28"/>
       <c r="F173" s="2"/>
@@ -23919,11 +23927,11 @@
       </c>
       <c r="C174" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E174" s="28"/>
       <c r="F174" s="2"/>
@@ -23979,11 +23987,11 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E175" s="28"/>
       <c r="F175" s="2"/>
@@ -24039,11 +24047,11 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E176" s="28"/>
       <c r="F176" s="2"/>
@@ -24099,11 +24107,11 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E177" s="28"/>
       <c r="F177" s="2"/>
@@ -24159,11 +24167,11 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E178" s="28"/>
       <c r="F178" s="2"/>
@@ -24219,11 +24227,11 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E179" s="28"/>
       <c r="F179" s="2"/>
@@ -24279,11 +24287,11 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E180" s="28"/>
       <c r="F180" s="2"/>
@@ -24339,11 +24347,11 @@
       </c>
       <c r="C181" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E181" s="28"/>
       <c r="F181" s="2"/>
@@ -24399,11 +24407,11 @@
       </c>
       <c r="C182" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E182" s="28"/>
       <c r="F182" s="2"/>
@@ -24459,11 +24467,11 @@
       </c>
       <c r="C183" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E183" s="28"/>
       <c r="F183" s="2"/>
@@ -24519,11 +24527,11 @@
       </c>
       <c r="C184" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E184" s="28"/>
       <c r="F184" s="2"/>
@@ -24579,11 +24587,11 @@
       </c>
       <c r="C185" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E185" s="28"/>
       <c r="F185" s="2"/>
@@ -24639,11 +24647,11 @@
       </c>
       <c r="C186" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E186" s="28"/>
       <c r="F186" s="2"/>
@@ -24699,11 +24707,11 @@
       </c>
       <c r="C187" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E187" s="28"/>
       <c r="F187" s="2"/>
@@ -24759,11 +24767,11 @@
       </c>
       <c r="C188" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E188" s="28"/>
       <c r="F188" s="2"/>
@@ -24819,11 +24827,11 @@
       </c>
       <c r="C189" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E189" s="28"/>
       <c r="F189" s="2"/>
@@ -24879,11 +24887,11 @@
       </c>
       <c r="C190" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E190" s="28"/>
       <c r="F190" s="2"/>
@@ -24939,11 +24947,11 @@
       </c>
       <c r="C191" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E191" s="28"/>
       <c r="F191" s="2"/>
@@ -24999,11 +25007,11 @@
       </c>
       <c r="C192" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E192" s="28"/>
       <c r="F192" s="2"/>
@@ -25059,11 +25067,11 @@
       </c>
       <c r="C193" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E193" s="28"/>
       <c r="F193" s="2"/>
@@ -25119,11 +25127,11 @@
       </c>
       <c r="C194" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E194" s="28"/>
       <c r="F194" s="2"/>
@@ -25179,11 +25187,11 @@
       </c>
       <c r="C195" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E195" s="28"/>
       <c r="F195" s="2"/>
@@ -25239,11 +25247,11 @@
       </c>
       <c r="C196" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E196" s="28"/>
       <c r="F196" s="2"/>
@@ -25299,11 +25307,11 @@
       </c>
       <c r="C197" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E197" s="28"/>
       <c r="F197" s="2"/>
@@ -25359,11 +25367,11 @@
       </c>
       <c r="C198" s="1">
         <f t="shared" si="17"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="18"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E198" s="28"/>
       <c r="F198" s="2"/>
@@ -25419,11 +25427,11 @@
       </c>
       <c r="C199" s="1">
         <f t="shared" ref="C199:C262" si="25">D198</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" ref="D199:D262" si="26">IF(E199="DONE",C199+(F199/1440)+(G199/86400),C199)</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E199" s="28"/>
       <c r="F199" s="2"/>
@@ -25479,11 +25487,11 @@
       </c>
       <c r="C200" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E200" s="28"/>
       <c r="F200" s="2"/>
@@ -25539,11 +25547,11 @@
       </c>
       <c r="C201" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E201" s="28"/>
       <c r="F201" s="2"/>
@@ -25599,11 +25607,11 @@
       </c>
       <c r="C202" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D202" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E202" s="28"/>
       <c r="F202" s="2"/>
@@ -25659,11 +25667,11 @@
       </c>
       <c r="C203" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D203" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E203" s="28"/>
       <c r="F203" s="2"/>
@@ -25719,11 +25727,11 @@
       </c>
       <c r="C204" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D204" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E204" s="28"/>
       <c r="F204" s="2"/>
@@ -25779,11 +25787,11 @@
       </c>
       <c r="C205" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D205" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E205" s="28"/>
       <c r="F205" s="2"/>
@@ -25839,11 +25847,11 @@
       </c>
       <c r="C206" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D206" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E206" s="28"/>
       <c r="F206" s="2"/>
@@ -25899,11 +25907,11 @@
       </c>
       <c r="C207" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D207" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E207" s="28"/>
       <c r="F207" s="2"/>
@@ -25959,11 +25967,11 @@
       </c>
       <c r="C208" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D208" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E208" s="28"/>
       <c r="F208" s="2"/>
@@ -26019,11 +26027,11 @@
       </c>
       <c r="C209" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D209" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E209" s="28"/>
       <c r="F209" s="2"/>
@@ -26079,11 +26087,11 @@
       </c>
       <c r="C210" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D210" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E210" s="28"/>
       <c r="F210" s="2"/>
@@ -26139,11 +26147,11 @@
       </c>
       <c r="C211" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D211" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E211" s="28"/>
       <c r="F211" s="2"/>
@@ -26199,11 +26207,11 @@
       </c>
       <c r="C212" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D212" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E212" s="28"/>
       <c r="F212" s="2"/>
@@ -26259,11 +26267,11 @@
       </c>
       <c r="C213" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D213" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E213" s="28"/>
       <c r="F213" s="2"/>
@@ -26319,11 +26327,11 @@
       </c>
       <c r="C214" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D214" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E214" s="28"/>
       <c r="F214" s="2"/>
@@ -26379,11 +26387,11 @@
       </c>
       <c r="C215" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D215" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E215" s="28"/>
       <c r="F215" s="2"/>
@@ -26439,11 +26447,11 @@
       </c>
       <c r="C216" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D216" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E216" s="28"/>
       <c r="F216" s="2"/>
@@ -26499,11 +26507,11 @@
       </c>
       <c r="C217" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D217" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E217" s="28"/>
       <c r="F217" s="2"/>
@@ -26559,11 +26567,11 @@
       </c>
       <c r="C218" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D218" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E218" s="28"/>
       <c r="F218" s="2"/>
@@ -26619,11 +26627,11 @@
       </c>
       <c r="C219" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D219" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E219" s="28"/>
       <c r="F219" s="2"/>
@@ -26679,11 +26687,11 @@
       </c>
       <c r="C220" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D220" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E220" s="28"/>
       <c r="F220" s="2"/>
@@ -26739,11 +26747,11 @@
       </c>
       <c r="C221" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D221" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E221" s="28"/>
       <c r="F221" s="2"/>
@@ -26799,11 +26807,11 @@
       </c>
       <c r="C222" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D222" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E222" s="28"/>
       <c r="F222" s="2"/>
@@ -26859,11 +26867,11 @@
       </c>
       <c r="C223" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D223" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E223" s="28"/>
       <c r="F223" s="2"/>
@@ -26919,11 +26927,11 @@
       </c>
       <c r="C224" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D224" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E224" s="28"/>
       <c r="F224" s="2"/>
@@ -26979,11 +26987,11 @@
       </c>
       <c r="C225" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D225" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E225" s="28"/>
       <c r="F225" s="2"/>
@@ -27039,11 +27047,11 @@
       </c>
       <c r="C226" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D226" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E226" s="28"/>
       <c r="F226" s="2"/>
@@ -27099,11 +27107,11 @@
       </c>
       <c r="C227" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D227" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E227" s="28"/>
       <c r="F227" s="2"/>
@@ -27159,11 +27167,11 @@
       </c>
       <c r="C228" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D228" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E228" s="28"/>
       <c r="F228" s="2"/>
@@ -27219,11 +27227,11 @@
       </c>
       <c r="C229" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D229" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E229" s="28"/>
       <c r="F229" s="2"/>
@@ -27279,11 +27287,11 @@
       </c>
       <c r="C230" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D230" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E230" s="28"/>
       <c r="F230" s="2"/>
@@ -27339,11 +27347,11 @@
       </c>
       <c r="C231" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D231" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E231" s="28"/>
       <c r="F231" s="2"/>
@@ -27399,11 +27407,11 @@
       </c>
       <c r="C232" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D232" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="2"/>
@@ -27459,11 +27467,11 @@
       </c>
       <c r="C233" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D233" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E233" s="28"/>
       <c r="F233" s="2"/>
@@ -27519,11 +27527,11 @@
       </c>
       <c r="C234" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D234" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="2"/>
@@ -27579,11 +27587,11 @@
       </c>
       <c r="C235" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D235" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="2"/>
@@ -27639,11 +27647,11 @@
       </c>
       <c r="C236" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D236" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E236" s="28"/>
       <c r="F236" s="2"/>
@@ -27699,11 +27707,11 @@
       </c>
       <c r="C237" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D237" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E237" s="28"/>
       <c r="F237" s="2"/>
@@ -27759,11 +27767,11 @@
       </c>
       <c r="C238" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D238" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E238" s="28"/>
       <c r="F238" s="2"/>
@@ -27819,11 +27827,11 @@
       </c>
       <c r="C239" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D239" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E239" s="28"/>
       <c r="F239" s="2"/>
@@ -27879,11 +27887,11 @@
       </c>
       <c r="C240" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D240" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E240" s="28"/>
       <c r="F240" s="2"/>
@@ -27939,11 +27947,11 @@
       </c>
       <c r="C241" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D241" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E241" s="28"/>
       <c r="F241" s="2"/>
@@ -27999,11 +28007,11 @@
       </c>
       <c r="C242" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D242" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E242" s="28"/>
       <c r="F242" s="2"/>
@@ -28059,11 +28067,11 @@
       </c>
       <c r="C243" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D243" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E243" s="28"/>
       <c r="F243" s="2"/>
@@ -28119,11 +28127,11 @@
       </c>
       <c r="C244" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D244" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E244" s="28"/>
       <c r="F244" s="2"/>
@@ -28179,11 +28187,11 @@
       </c>
       <c r="C245" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D245" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E245" s="28"/>
       <c r="F245" s="2"/>
@@ -28239,11 +28247,11 @@
       </c>
       <c r="C246" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D246" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E246" s="28"/>
       <c r="F246" s="2"/>
@@ -28299,11 +28307,11 @@
       </c>
       <c r="C247" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D247" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E247" s="28"/>
       <c r="F247" s="2"/>
@@ -28359,11 +28367,11 @@
       </c>
       <c r="C248" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D248" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E248" s="28"/>
       <c r="F248" s="2"/>
@@ -28419,11 +28427,11 @@
       </c>
       <c r="C249" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D249" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E249" s="28"/>
       <c r="F249" s="2"/>
@@ -28479,11 +28487,11 @@
       </c>
       <c r="C250" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D250" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E250" s="28"/>
       <c r="F250" s="2"/>
@@ -28539,11 +28547,11 @@
       </c>
       <c r="C251" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D251" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E251" s="28"/>
       <c r="F251" s="2"/>
@@ -28599,11 +28607,11 @@
       </c>
       <c r="C252" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D252" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E252" s="28"/>
       <c r="F252" s="2"/>
@@ -28659,11 +28667,11 @@
       </c>
       <c r="C253" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D253" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E253" s="28"/>
       <c r="F253" s="2"/>
@@ -28719,11 +28727,11 @@
       </c>
       <c r="C254" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D254" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E254" s="28"/>
       <c r="F254" s="2"/>
@@ -28779,11 +28787,11 @@
       </c>
       <c r="C255" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D255" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E255" s="28"/>
       <c r="F255" s="2"/>
@@ -28839,11 +28847,11 @@
       </c>
       <c r="C256" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D256" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E256" s="28"/>
       <c r="F256" s="2"/>
@@ -28899,11 +28907,11 @@
       </c>
       <c r="C257" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D257" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E257" s="28"/>
       <c r="F257" s="2"/>
@@ -28959,11 +28967,11 @@
       </c>
       <c r="C258" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D258" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E258" s="28"/>
       <c r="F258" s="2"/>
@@ -29019,11 +29027,11 @@
       </c>
       <c r="C259" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D259" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E259" s="28"/>
       <c r="F259" s="2"/>
@@ -29079,11 +29087,11 @@
       </c>
       <c r="C260" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D260" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E260" s="28"/>
       <c r="F260" s="2"/>
@@ -29139,11 +29147,11 @@
       </c>
       <c r="C261" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D261" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E261" s="28"/>
       <c r="F261" s="2"/>
@@ -29199,11 +29207,11 @@
       </c>
       <c r="C262" s="1">
         <f t="shared" si="25"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D262" s="1">
         <f t="shared" si="26"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E262" s="28"/>
       <c r="F262" s="2"/>
@@ -29259,11 +29267,11 @@
       </c>
       <c r="C263" s="1">
         <f t="shared" ref="C263:C326" si="33">D262</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D263" s="1">
         <f t="shared" ref="D263:D326" si="34">IF(E263="DONE",C263+(F263/1440)+(G263/86400),C263)</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E263" s="28"/>
       <c r="F263" s="2"/>
@@ -29319,11 +29327,11 @@
       </c>
       <c r="C264" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D264" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E264" s="28"/>
       <c r="F264" s="2"/>
@@ -29379,11 +29387,11 @@
       </c>
       <c r="C265" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D265" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E265" s="28"/>
       <c r="F265" s="2"/>
@@ -29439,11 +29447,11 @@
       </c>
       <c r="C266" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D266" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E266" s="28"/>
       <c r="F266" s="2"/>
@@ -29499,11 +29507,11 @@
       </c>
       <c r="C267" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D267" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E267" s="28"/>
       <c r="F267" s="2"/>
@@ -29559,11 +29567,11 @@
       </c>
       <c r="C268" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D268" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E268" s="28"/>
       <c r="F268" s="2"/>
@@ -29619,11 +29627,11 @@
       </c>
       <c r="C269" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D269" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E269" s="28"/>
       <c r="F269" s="2"/>
@@ -29679,11 +29687,11 @@
       </c>
       <c r="C270" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D270" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E270" s="28"/>
       <c r="F270" s="2"/>
@@ -29739,11 +29747,11 @@
       </c>
       <c r="C271" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D271" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E271" s="28"/>
       <c r="F271" s="2"/>
@@ -29799,11 +29807,11 @@
       </c>
       <c r="C272" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D272" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E272" s="28"/>
       <c r="F272" s="2"/>
@@ -29859,11 +29867,11 @@
       </c>
       <c r="C273" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D273" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E273" s="28"/>
       <c r="F273" s="2"/>
@@ -29919,11 +29927,11 @@
       </c>
       <c r="C274" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D274" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E274" s="28"/>
       <c r="F274" s="2"/>
@@ -29979,11 +29987,11 @@
       </c>
       <c r="C275" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D275" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E275" s="28"/>
       <c r="F275" s="2"/>
@@ -30039,11 +30047,11 @@
       </c>
       <c r="C276" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D276" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E276" s="28"/>
       <c r="F276" s="2"/>
@@ -30099,11 +30107,11 @@
       </c>
       <c r="C277" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D277" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E277" s="28"/>
       <c r="F277" s="2"/>
@@ -30159,11 +30167,11 @@
       </c>
       <c r="C278" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D278" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E278" s="28"/>
       <c r="F278" s="2"/>
@@ -30219,11 +30227,11 @@
       </c>
       <c r="C279" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D279" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E279" s="28"/>
       <c r="F279" s="2"/>
@@ -30279,11 +30287,11 @@
       </c>
       <c r="C280" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D280" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E280" s="28"/>
       <c r="F280" s="2"/>
@@ -30339,11 +30347,11 @@
       </c>
       <c r="C281" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D281" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E281" s="28"/>
       <c r="F281" s="2"/>
@@ -30399,11 +30407,11 @@
       </c>
       <c r="C282" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D282" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E282" s="28"/>
       <c r="F282" s="2"/>
@@ -30459,11 +30467,11 @@
       </c>
       <c r="C283" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D283" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E283" s="28"/>
       <c r="F283" s="2"/>
@@ -30519,11 +30527,11 @@
       </c>
       <c r="C284" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D284" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E284" s="28"/>
       <c r="F284" s="2"/>
@@ -30579,11 +30587,11 @@
       </c>
       <c r="C285" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D285" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E285" s="28"/>
       <c r="F285" s="2"/>
@@ -30639,11 +30647,11 @@
       </c>
       <c r="C286" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D286" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E286" s="28"/>
       <c r="F286" s="2"/>
@@ -30699,11 +30707,11 @@
       </c>
       <c r="C287" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D287" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E287" s="28"/>
       <c r="F287" s="2"/>
@@ -30759,11 +30767,11 @@
       </c>
       <c r="C288" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D288" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E288" s="28"/>
       <c r="F288" s="2"/>
@@ -30819,11 +30827,11 @@
       </c>
       <c r="C289" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D289" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E289" s="28"/>
       <c r="F289" s="2"/>
@@ -30879,11 +30887,11 @@
       </c>
       <c r="C290" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D290" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E290" s="28"/>
       <c r="F290" s="2"/>
@@ -30939,11 +30947,11 @@
       </c>
       <c r="C291" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D291" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E291" s="28"/>
       <c r="F291" s="2"/>
@@ -30999,11 +31007,11 @@
       </c>
       <c r="C292" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D292" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E292" s="28"/>
       <c r="F292" s="2"/>
@@ -31059,11 +31067,11 @@
       </c>
       <c r="C293" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D293" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E293" s="28"/>
       <c r="F293" s="2"/>
@@ -31119,11 +31127,11 @@
       </c>
       <c r="C294" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D294" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E294" s="28"/>
       <c r="F294" s="2"/>
@@ -31179,11 +31187,11 @@
       </c>
       <c r="C295" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D295" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E295" s="28"/>
       <c r="F295" s="2"/>
@@ -31239,11 +31247,11 @@
       </c>
       <c r="C296" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D296" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E296" s="28"/>
       <c r="F296" s="2"/>
@@ -31299,11 +31307,11 @@
       </c>
       <c r="C297" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D297" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="2"/>
@@ -31359,11 +31367,11 @@
       </c>
       <c r="C298" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D298" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E298" s="28"/>
       <c r="F298" s="2"/>
@@ -31419,11 +31427,11 @@
       </c>
       <c r="C299" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D299" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E299" s="28"/>
       <c r="F299" s="2"/>
@@ -31479,11 +31487,11 @@
       </c>
       <c r="C300" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D300" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E300" s="28"/>
       <c r="F300" s="2"/>
@@ -31539,11 +31547,11 @@
       </c>
       <c r="C301" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D301" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E301" s="28"/>
       <c r="F301" s="2"/>
@@ -31599,11 +31607,11 @@
       </c>
       <c r="C302" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D302" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E302" s="28"/>
       <c r="F302" s="2"/>
@@ -31659,11 +31667,11 @@
       </c>
       <c r="C303" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D303" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E303" s="28"/>
       <c r="F303" s="2"/>
@@ -31719,11 +31727,11 @@
       </c>
       <c r="C304" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D304" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E304" s="28"/>
       <c r="F304" s="2"/>
@@ -31779,11 +31787,11 @@
       </c>
       <c r="C305" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D305" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E305" s="28"/>
       <c r="F305" s="2"/>
@@ -31839,11 +31847,11 @@
       </c>
       <c r="C306" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D306" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E306" s="28"/>
       <c r="F306" s="2"/>
@@ -31899,11 +31907,11 @@
       </c>
       <c r="C307" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D307" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E307" s="28"/>
       <c r="F307" s="2"/>
@@ -31959,11 +31967,11 @@
       </c>
       <c r="C308" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D308" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E308" s="28"/>
       <c r="F308" s="2"/>
@@ -32019,11 +32027,11 @@
       </c>
       <c r="C309" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D309" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E309" s="28"/>
       <c r="F309" s="2"/>
@@ -32079,11 +32087,11 @@
       </c>
       <c r="C310" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D310" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E310" s="28"/>
       <c r="F310" s="2"/>
@@ -32139,11 +32147,11 @@
       </c>
       <c r="C311" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D311" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E311" s="28"/>
       <c r="F311" s="2"/>
@@ -32199,11 +32207,11 @@
       </c>
       <c r="C312" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D312" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E312" s="28"/>
       <c r="F312" s="2"/>
@@ -32259,11 +32267,11 @@
       </c>
       <c r="C313" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D313" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E313" s="28"/>
       <c r="F313" s="2"/>
@@ -32319,11 +32327,11 @@
       </c>
       <c r="C314" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D314" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E314" s="28"/>
       <c r="F314" s="2"/>
@@ -32379,11 +32387,11 @@
       </c>
       <c r="C315" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D315" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E315" s="28"/>
       <c r="F315" s="2"/>
@@ -32439,11 +32447,11 @@
       </c>
       <c r="C316" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D316" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E316" s="28"/>
       <c r="F316" s="2"/>
@@ -32499,11 +32507,11 @@
       </c>
       <c r="C317" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D317" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E317" s="28"/>
       <c r="F317" s="2"/>
@@ -32559,11 +32567,11 @@
       </c>
       <c r="C318" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D318" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E318" s="28"/>
       <c r="F318" s="2"/>
@@ -32619,11 +32627,11 @@
       </c>
       <c r="C319" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D319" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E319" s="28"/>
       <c r="F319" s="2"/>
@@ -32679,11 +32687,11 @@
       </c>
       <c r="C320" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D320" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E320" s="28"/>
       <c r="F320" s="2"/>
@@ -32739,11 +32747,11 @@
       </c>
       <c r="C321" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D321" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E321" s="28"/>
       <c r="F321" s="2"/>
@@ -32799,11 +32807,11 @@
       </c>
       <c r="C322" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D322" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E322" s="28"/>
       <c r="F322" s="2"/>
@@ -32859,11 +32867,11 @@
       </c>
       <c r="C323" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D323" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E323" s="28"/>
       <c r="F323" s="2"/>
@@ -32919,11 +32927,11 @@
       </c>
       <c r="C324" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D324" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E324" s="28"/>
       <c r="F324" s="2"/>
@@ -32979,11 +32987,11 @@
       </c>
       <c r="C325" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D325" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E325" s="28"/>
       <c r="F325" s="2"/>
@@ -33039,11 +33047,11 @@
       </c>
       <c r="C326" s="1">
         <f t="shared" si="33"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D326" s="1">
         <f t="shared" si="34"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E326" s="28"/>
       <c r="F326" s="2"/>
@@ -33099,11 +33107,11 @@
       </c>
       <c r="C327" s="1">
         <f t="shared" ref="C327:C369" si="41">D326</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D327" s="1">
         <f t="shared" ref="D327:D369" si="42">IF(E327="DONE",C327+(F327/1440)+(G327/86400),C327)</f>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E327" s="28"/>
       <c r="F327" s="2"/>
@@ -33159,11 +33167,11 @@
       </c>
       <c r="C328" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D328" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E328" s="28"/>
       <c r="F328" s="2"/>
@@ -33219,11 +33227,11 @@
       </c>
       <c r="C329" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D329" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E329" s="28"/>
       <c r="F329" s="2"/>
@@ -33279,11 +33287,11 @@
       </c>
       <c r="C330" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D330" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E330" s="28"/>
       <c r="F330" s="2"/>
@@ -33339,11 +33347,11 @@
       </c>
       <c r="C331" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D331" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E331" s="28"/>
       <c r="F331" s="2"/>
@@ -33399,11 +33407,11 @@
       </c>
       <c r="C332" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D332" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E332" s="28"/>
       <c r="F332" s="2"/>
@@ -33459,11 +33467,11 @@
       </c>
       <c r="C333" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D333" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E333" s="28"/>
       <c r="F333" s="2"/>
@@ -33519,11 +33527,11 @@
       </c>
       <c r="C334" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D334" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E334" s="28"/>
       <c r="F334" s="2"/>
@@ -33579,11 +33587,11 @@
       </c>
       <c r="C335" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D335" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E335" s="28"/>
       <c r="F335" s="2"/>
@@ -33639,11 +33647,11 @@
       </c>
       <c r="C336" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D336" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E336" s="28"/>
       <c r="F336" s="2"/>
@@ -33699,11 +33707,11 @@
       </c>
       <c r="C337" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D337" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E337" s="28"/>
       <c r="F337" s="2"/>
@@ -33759,11 +33767,11 @@
       </c>
       <c r="C338" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D338" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E338" s="28"/>
       <c r="F338" s="2"/>
@@ -33819,11 +33827,11 @@
       </c>
       <c r="C339" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D339" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E339" s="28"/>
       <c r="F339" s="2"/>
@@ -33879,11 +33887,11 @@
       </c>
       <c r="C340" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D340" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E340" s="28"/>
       <c r="F340" s="2"/>
@@ -33939,11 +33947,11 @@
       </c>
       <c r="C341" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D341" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E341" s="28"/>
       <c r="F341" s="2"/>
@@ -33999,11 +34007,11 @@
       </c>
       <c r="C342" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D342" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E342" s="28"/>
       <c r="F342" s="2"/>
@@ -34059,11 +34067,11 @@
       </c>
       <c r="C343" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D343" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E343" s="28"/>
       <c r="F343" s="2"/>
@@ -34119,11 +34127,11 @@
       </c>
       <c r="C344" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D344" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E344" s="28"/>
       <c r="F344" s="2"/>
@@ -34179,11 +34187,11 @@
       </c>
       <c r="C345" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D345" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E345" s="28"/>
       <c r="F345" s="2"/>
@@ -34239,11 +34247,11 @@
       </c>
       <c r="C346" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D346" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E346" s="28"/>
       <c r="F346" s="2"/>
@@ -34299,11 +34307,11 @@
       </c>
       <c r="C347" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D347" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E347" s="28"/>
       <c r="F347" s="2"/>
@@ -34359,11 +34367,11 @@
       </c>
       <c r="C348" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D348" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E348" s="28"/>
       <c r="F348" s="2"/>
@@ -34419,11 +34427,11 @@
       </c>
       <c r="C349" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D349" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E349" s="28"/>
       <c r="F349" s="2"/>
@@ -34479,11 +34487,11 @@
       </c>
       <c r="C350" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D350" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E350" s="28"/>
       <c r="F350" s="2"/>
@@ -34539,11 +34547,11 @@
       </c>
       <c r="C351" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D351" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E351" s="28"/>
       <c r="F351" s="2"/>
@@ -34599,11 +34607,11 @@
       </c>
       <c r="C352" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D352" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E352" s="28"/>
       <c r="F352" s="2"/>
@@ -34659,11 +34667,11 @@
       </c>
       <c r="C353" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D353" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E353" s="28"/>
       <c r="F353" s="2"/>
@@ -34719,11 +34727,11 @@
       </c>
       <c r="C354" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D354" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E354" s="28"/>
       <c r="F354" s="2"/>
@@ -34779,11 +34787,11 @@
       </c>
       <c r="C355" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D355" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E355" s="28"/>
       <c r="F355" s="2"/>
@@ -34839,11 +34847,11 @@
       </c>
       <c r="C356" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D356" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E356" s="28"/>
       <c r="F356" s="2"/>
@@ -34899,11 +34907,11 @@
       </c>
       <c r="C357" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D357" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E357" s="28"/>
       <c r="F357" s="2"/>
@@ -34959,11 +34967,11 @@
       </c>
       <c r="C358" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D358" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E358" s="28"/>
       <c r="F358" s="2"/>
@@ -35019,11 +35027,11 @@
       </c>
       <c r="C359" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D359" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E359" s="28"/>
       <c r="F359" s="2"/>
@@ -35079,11 +35087,11 @@
       </c>
       <c r="C360" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D360" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E360" s="28"/>
       <c r="F360" s="2"/>
@@ -35139,11 +35147,11 @@
       </c>
       <c r="C361" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D361" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E361" s="28"/>
       <c r="F361" s="2"/>
@@ -35199,11 +35207,11 @@
       </c>
       <c r="C362" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D362" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E362" s="28"/>
       <c r="F362" s="2"/>
@@ -35259,11 +35267,11 @@
       </c>
       <c r="C363" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D363" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="2"/>
@@ -35319,11 +35327,11 @@
       </c>
       <c r="C364" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D364" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="2"/>
@@ -35379,11 +35387,11 @@
       </c>
       <c r="C365" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D365" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="2"/>
@@ -35439,11 +35447,11 @@
       </c>
       <c r="C366" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D366" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E366" s="28"/>
       <c r="F366" s="2"/>
@@ -35499,11 +35507,11 @@
       </c>
       <c r="C367" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D367" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E367" s="28"/>
       <c r="F367" s="2"/>
@@ -35559,11 +35567,11 @@
       </c>
       <c r="C368" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D368" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E368" s="28"/>
       <c r="F368" s="2"/>
@@ -35619,11 +35627,11 @@
       </c>
       <c r="C369" s="1">
         <f t="shared" si="41"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="D369" s="1">
         <f t="shared" si="42"/>
-        <v>2.0671296296296292E-2</v>
+        <v>2.7303240740740739E-2</v>
       </c>
       <c r="E369" s="28"/>
       <c r="F369" s="2"/>
